--- a/biology/Zoologie/Anolis_gundlachi/Anolis_gundlachi.xlsx
+++ b/biology/Zoologie/Anolis_gundlachi/Anolis_gundlachi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis gundlachi est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis gundlachi est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Porto Rico[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Porto Rico.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 68 mm et les femelles jusqu'à 45 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 68 mm et les femelles jusqu'à 45 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Juan Gundlach[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Juan Gundlach.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1877 : Über eine von Hrn. Viceconsul L. Krug und Dr. J. Gundlach auf der Insel Puertorico gemachte Sammlung von Säugethieren und Amphibien, so wie über die Entwickelung eines Batrachiers, Hylodes martinicensis Dum. Bibr., ohne Metamorphose. Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1876, p. 703-714 (texte intégral).</t>
         </is>
